--- a/app/config/tables/sign/forms/sign/sign.xlsx
+++ b/app/config/tables/sign/forms/sign/sign.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\sign\forms\sign\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1420" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="3443" yWindow="1414" windowWidth="25606" windowHeight="16076" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>type</t>
   </si>
@@ -44,9 +49,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -87,12 +89,18 @@
   </si>
   <si>
     <t>Does the image still work?</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -550,17 +558,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -574,31 +582,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -620,17 +628,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -651,18 +659,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -670,39 +679,39 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3">
         <v>20160920</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/sign/forms/sign/sign.xlsx
+++ b/app/config/tables/sign/forms/sign/sign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3443" yWindow="1414" windowWidth="25606" windowHeight="16076" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3443" yWindow="1414" windowWidth="25606" windowHeight="16076" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>type</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>Comments</t>
@@ -570,7 +567,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -582,31 +579,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -624,24 +621,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -673,26 +671,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>20160920</v>
@@ -700,18 +698,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
